--- a/publication/analyses/outputs/fit_plane/micrometer-step-variation_and_fit-rmse-z_by_z-nominal.xlsx
+++ b/publication/analyses/outputs/fit_plane/micrometer-step-variation_and_fit-rmse-z_by_z-nominal.xlsx
@@ -473,19 +473,19 @@
         <v>-48.09999999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>-47.80828328593273</v>
+        <v>-47.80829537787529</v>
       </c>
       <c r="D2" t="n">
-        <v>-47.80828328593273</v>
+        <v>-47.80829537787529</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4708030978362472</v>
+        <v>0.4708030977243542</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2917167140672632</v>
+        <v>0.2917046221247048</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2917167140672632</v>
+        <v>0.2917046221247048</v>
       </c>
     </row>
     <row r="3">
@@ -496,19 +496,19 @@
         <v>-43.09999999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>-43.14635805364573</v>
+        <v>-43.14635803198964</v>
       </c>
       <c r="D3" t="n">
-        <v>-43.14635805364573</v>
+        <v>-43.14635803198964</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3292147994388842</v>
+        <v>0.3292147994394234</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.04635805364573287</v>
+        <v>-0.04635803198964794</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.04635805364573287</v>
+        <v>-0.04635803198964794</v>
       </c>
     </row>
     <row r="4">
@@ -519,19 +519,19 @@
         <v>-38.09999999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>-37.68518844029698</v>
+        <v>-37.68518843851261</v>
       </c>
       <c r="D4" t="n">
-        <v>-37.68518844029698</v>
+        <v>-37.68518843851261</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3645598855148966</v>
+        <v>0.3645598855153821</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4148115597030184</v>
+        <v>0.4148115614873831</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4148115597030184</v>
+        <v>0.4148115614873831</v>
       </c>
     </row>
     <row r="5">
@@ -542,19 +542,19 @@
         <v>-33.09999999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>-32.98388033301514</v>
+        <v>-32.98388033521916</v>
       </c>
       <c r="D5" t="n">
-        <v>-32.98388033301514</v>
+        <v>-32.98388033521916</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2194756493990025</v>
+        <v>0.2194756493987746</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1161196669848579</v>
+        <v>0.1161196647808325</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1161196669848579</v>
+        <v>0.1161196647808325</v>
       </c>
     </row>
     <row r="6">
@@ -565,19 +565,19 @@
         <v>-28.09999999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>-28.40995576800576</v>
+        <v>-28.40995576350307</v>
       </c>
       <c r="D6" t="n">
-        <v>-28.40995576800576</v>
+        <v>-28.40995576350307</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2137211489776591</v>
+        <v>0.2137211489781433</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.3099557680057643</v>
+        <v>-0.3099557635030763</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.3099557680057643</v>
+        <v>-0.3099557635030763</v>
       </c>
     </row>
     <row r="7">
@@ -588,19 +588,19 @@
         <v>-23.09999999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>-22.86769736418611</v>
+        <v>-22.86769729371632</v>
       </c>
       <c r="D7" t="n">
-        <v>-22.86769736418611</v>
+        <v>-22.86769729371632</v>
       </c>
       <c r="E7" t="n">
-        <v>0.2484320002483339</v>
+        <v>0.248432000250815</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2323026358138875</v>
+        <v>0.2323027062836758</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2323026358138875</v>
+        <v>0.2323027062836758</v>
       </c>
     </row>
     <row r="8">
@@ -611,19 +611,19 @@
         <v>-18.09999999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>-18.20520396641349</v>
+        <v>-18.20520397000869</v>
       </c>
       <c r="D8" t="n">
-        <v>-18.20520396641349</v>
+        <v>-18.20520397000869</v>
       </c>
       <c r="E8" t="n">
-        <v>0.244583391029724</v>
+        <v>0.2445833910296031</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.1052039664134945</v>
+        <v>-0.1052039700086915</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1052039664134945</v>
+        <v>-0.1052039700086915</v>
       </c>
     </row>
     <row r="9">
@@ -634,19 +634,19 @@
         <v>-13.09999999999999</v>
       </c>
       <c r="C9" t="n">
-        <v>-13.53538260579001</v>
+        <v>-13.53538203551962</v>
       </c>
       <c r="D9" t="n">
-        <v>-13.53538260579001</v>
+        <v>-13.53538203551962</v>
       </c>
       <c r="E9" t="n">
-        <v>0.309975478997892</v>
+        <v>0.3099754790127475</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.4353826057900125</v>
+        <v>-0.4353820355196287</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.4353826057900125</v>
+        <v>-0.4353820355196287</v>
       </c>
     </row>
     <row r="10">
@@ -657,19 +657,19 @@
         <v>-8.099999999999994</v>
       </c>
       <c r="C10" t="n">
-        <v>-8.412366556792774</v>
+        <v>-8.412366102243347</v>
       </c>
       <c r="D10" t="n">
-        <v>-8.412366556792774</v>
+        <v>-8.412366102243347</v>
       </c>
       <c r="E10" t="n">
-        <v>0.2153980405035066</v>
+        <v>0.2153980405203474</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.3123665567927798</v>
+        <v>-0.3123661022433524</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.3123665567927798</v>
+        <v>-0.3123661022433524</v>
       </c>
     </row>
     <row r="11">
@@ -680,19 +680,19 @@
         <v>-3.099999999999994</v>
       </c>
       <c r="C11" t="n">
-        <v>-4.162115879123986</v>
+        <v>-4.162115875665233</v>
       </c>
       <c r="D11" t="n">
-        <v>-4.162115879123986</v>
+        <v>-4.162115875665233</v>
       </c>
       <c r="E11" t="n">
-        <v>0.3236065116966089</v>
+        <v>0.3236065116967684</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.062115879123992</v>
+        <v>-1.062115875665238</v>
       </c>
       <c r="G11" t="n">
-        <v>-1.062115879123992</v>
+        <v>-1.062115875665238</v>
       </c>
     </row>
     <row r="12">
@@ -706,16 +706,16 @@
         <v>1.5</v>
       </c>
       <c r="D12" t="n">
-        <v>2.844933664064645</v>
+        <v>2.844933442899461</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8114088544939269</v>
+        <v>0.8114088544915805</v>
       </c>
       <c r="F12" t="n">
         <v>-0.4000000000000057</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9449336640646395</v>
+        <v>0.9449334428994556</v>
       </c>
     </row>
     <row r="13">
@@ -726,19 +726,19 @@
         <v>6.900000000000006</v>
       </c>
       <c r="C13" t="n">
-        <v>6.883590418386335</v>
+        <v>6.883590571785827</v>
       </c>
       <c r="D13" t="n">
-        <v>6.883590418386335</v>
+        <v>6.883590571785827</v>
       </c>
       <c r="E13" t="n">
-        <v>0.1684241354349764</v>
+        <v>0.1684241354425345</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.01640958161367045</v>
+        <v>-0.01640942821417823</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.01640958161367045</v>
+        <v>-0.01640942821417823</v>
       </c>
     </row>
     <row r="14">
@@ -749,19 +749,19 @@
         <v>11.90000000000001</v>
       </c>
       <c r="C14" t="n">
-        <v>12.29422759640145</v>
+        <v>12.29422759822129</v>
       </c>
       <c r="D14" t="n">
-        <v>12.29422759640145</v>
+        <v>12.29422759822129</v>
       </c>
       <c r="E14" t="n">
-        <v>0.1250226437837247</v>
+        <v>0.1250226437837227</v>
       </c>
       <c r="F14" t="n">
-        <v>0.394227596401441</v>
+        <v>0.3942275982212795</v>
       </c>
       <c r="G14" t="n">
-        <v>0.394227596401441</v>
+        <v>0.3942275982212795</v>
       </c>
     </row>
     <row r="15">
@@ -772,19 +772,19 @@
         <v>16.90000000000001</v>
       </c>
       <c r="C15" t="n">
-        <v>17.00709991454513</v>
+        <v>17.00708776609422</v>
       </c>
       <c r="D15" t="n">
-        <v>17.00709991454513</v>
+        <v>17.00708776609422</v>
       </c>
       <c r="E15" t="n">
-        <v>0.1236840534928974</v>
+        <v>0.1236840530638181</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1070999145451275</v>
+        <v>0.1070877660942102</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1070999145451275</v>
+        <v>0.1070877660942102</v>
       </c>
     </row>
     <row r="16">
@@ -795,19 +795,19 @@
         <v>21.90000000000001</v>
       </c>
       <c r="C16" t="n">
-        <v>22.14348720070471</v>
+        <v>22.14348712706708</v>
       </c>
       <c r="D16" t="n">
-        <v>22.14348720070471</v>
+        <v>22.14348712706708</v>
       </c>
       <c r="E16" t="n">
-        <v>0.1495105832241067</v>
+        <v>0.1495105832204051</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2434872007047026</v>
+        <v>0.2434871270670769</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2434872007047026</v>
+        <v>0.2434871270670769</v>
       </c>
     </row>
     <row r="17">
@@ -818,19 +818,19 @@
         <v>26.90000000000001</v>
       </c>
       <c r="C17" t="n">
-        <v>27.84517993602328</v>
+        <v>27.84518183438559</v>
       </c>
       <c r="D17" t="n">
-        <v>27.84517993602328</v>
+        <v>27.84518183438559</v>
       </c>
       <c r="E17" t="n">
-        <v>0.1672321072432307</v>
+        <v>0.1672321073303379</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9451799360232727</v>
+        <v>0.9451818343855862</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9451799360232727</v>
+        <v>0.9451818343855862</v>
       </c>
     </row>
     <row r="18">
@@ -841,19 +841,19 @@
         <v>31.90000000000001</v>
       </c>
       <c r="C18" t="n">
-        <v>32.6327596643745</v>
+        <v>32.63277172314477</v>
       </c>
       <c r="D18" t="n">
-        <v>32.6327596643745</v>
+        <v>32.63277172314477</v>
       </c>
       <c r="E18" t="n">
-        <v>0.1816479414218151</v>
+        <v>0.181647941713677</v>
       </c>
       <c r="F18" t="n">
-        <v>0.7327596643744982</v>
+        <v>0.732771723144765</v>
       </c>
       <c r="G18" t="n">
-        <v>0.7327596643744982</v>
+        <v>0.732771723144765</v>
       </c>
     </row>
     <row r="19">
@@ -864,19 +864,19 @@
         <v>36.90000000000001</v>
       </c>
       <c r="C19" t="n">
-        <v>37.69292631543188</v>
+        <v>37.69291482618024</v>
       </c>
       <c r="D19" t="n">
-        <v>37.69292631543188</v>
+        <v>37.69291482618024</v>
       </c>
       <c r="E19" t="n">
-        <v>0.2255940346433223</v>
+        <v>0.225594034410382</v>
       </c>
       <c r="F19" t="n">
-        <v>0.7929263154318775</v>
+        <v>0.7929148261802368</v>
       </c>
       <c r="G19" t="n">
-        <v>0.7929263154318775</v>
+        <v>0.7929148261802368</v>
       </c>
     </row>
     <row r="20">
@@ -887,19 +887,19 @@
         <v>41.90000000000001</v>
       </c>
       <c r="C20" t="n">
-        <v>42.4389663528382</v>
+        <v>42.43896635786599</v>
       </c>
       <c r="D20" t="n">
-        <v>42.4389663528382</v>
+        <v>42.43896635786599</v>
       </c>
       <c r="E20" t="n">
-        <v>0.2334783096803236</v>
+        <v>0.233478309680491</v>
       </c>
       <c r="F20" t="n">
-        <v>0.5389663528381945</v>
+        <v>0.5389663578659878</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5389663528381945</v>
+        <v>0.5389663578659878</v>
       </c>
     </row>
     <row r="21">
@@ -910,19 +910,19 @@
         <v>46.90000000000001</v>
       </c>
       <c r="C21" t="n">
-        <v>47.73906568297599</v>
+        <v>47.73905463312075</v>
       </c>
       <c r="D21" t="n">
-        <v>47.73906568297599</v>
+        <v>47.73905463312075</v>
       </c>
       <c r="E21" t="n">
-        <v>0.3325188305002392</v>
+        <v>0.3325188303431799</v>
       </c>
       <c r="F21" t="n">
-        <v>0.8390656829759848</v>
+        <v>0.839054633120746</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8390656829759848</v>
+        <v>0.839054633120746</v>
       </c>
     </row>
     <row r="22">
@@ -933,19 +933,19 @@
         <v>51.90000000000001</v>
       </c>
       <c r="C22" t="n">
-        <v>53.27214761449191</v>
+        <v>53.27214888613017</v>
       </c>
       <c r="D22" t="n">
-        <v>53.27214761449191</v>
+        <v>53.27214888613017</v>
       </c>
       <c r="E22" t="n">
-        <v>0.4999466591796403</v>
+        <v>0.4999466591987473</v>
       </c>
       <c r="F22" t="n">
-        <v>1.372147614491901</v>
+        <v>1.372148886130162</v>
       </c>
       <c r="G22" t="n">
-        <v>1.372147614491901</v>
+        <v>1.372148886130162</v>
       </c>
     </row>
   </sheetData>

--- a/publication/analyses/outputs/fit_plane/micrometer-step-variation_and_fit-rmse-z_by_z-nominal.xlsx
+++ b/publication/analyses/outputs/fit_plane/micrometer-step-variation_and_fit-rmse-z_by_z-nominal.xlsx
@@ -473,19 +473,19 @@
         <v>-48.09999999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>-47.80829537787529</v>
+        <v>-47.8082832843972</v>
       </c>
       <c r="D2" t="n">
-        <v>-47.80829537787529</v>
+        <v>-47.8082832843972</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4708030977243542</v>
+        <v>0.4708030978362276</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2917046221247048</v>
+        <v>0.2917167156027958</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2917046221247048</v>
+        <v>0.2917167156027958</v>
       </c>
     </row>
     <row r="3">
@@ -496,19 +496,19 @@
         <v>-43.09999999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>-43.14635803198964</v>
+        <v>-43.1463581034952</v>
       </c>
       <c r="D3" t="n">
-        <v>-43.14635803198964</v>
+        <v>-43.1463581034952</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3292147994394234</v>
+        <v>0.3292147994374878</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.04635803198964794</v>
+        <v>-0.04635810349520852</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.04635803198964794</v>
+        <v>-0.04635810349520852</v>
       </c>
     </row>
     <row r="4">
@@ -519,19 +519,19 @@
         <v>-38.09999999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>-37.68518843851261</v>
+        <v>-37.68519009447498</v>
       </c>
       <c r="D4" t="n">
-        <v>-37.68518843851261</v>
+        <v>-37.68519009447498</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3645598855153821</v>
+        <v>0.364559885479343</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4148115614873831</v>
+        <v>0.4148099055250185</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4148115614873831</v>
+        <v>0.4148099055250185</v>
       </c>
     </row>
     <row r="5">
@@ -542,19 +542,19 @@
         <v>-33.09999999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>-32.98388033521916</v>
+        <v>-32.98388033237012</v>
       </c>
       <c r="D5" t="n">
-        <v>-32.98388033521916</v>
+        <v>-32.98388033237012</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2194756493987746</v>
+        <v>0.2194756493989171</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1161196647808325</v>
+        <v>0.1161196676298744</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1161196647808325</v>
+        <v>0.1161196676298744</v>
       </c>
     </row>
     <row r="6">
@@ -565,19 +565,19 @@
         <v>-28.09999999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>-28.40995576350307</v>
+        <v>-28.40995576474833</v>
       </c>
       <c r="D6" t="n">
-        <v>-28.40995576350307</v>
+        <v>-28.40995576474833</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2137211489781433</v>
+        <v>0.2137211489779573</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.3099557635030763</v>
+        <v>-0.3099557647483344</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.3099557635030763</v>
+        <v>-0.3099557647483344</v>
       </c>
     </row>
     <row r="7">
@@ -588,19 +588,19 @@
         <v>-23.09999999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>-22.86769729371632</v>
+        <v>-22.86769740813532</v>
       </c>
       <c r="D7" t="n">
-        <v>-22.86769729371632</v>
+        <v>-22.86769740813532</v>
       </c>
       <c r="E7" t="n">
-        <v>0.248432000250815</v>
+        <v>0.2484320002469008</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2323027062836758</v>
+        <v>0.2323025918646771</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2323027062836758</v>
+        <v>0.2323025918646771</v>
       </c>
     </row>
     <row r="8">
@@ -611,19 +611,19 @@
         <v>-18.09999999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>-18.20520397000869</v>
+        <v>-18.20520396847115</v>
       </c>
       <c r="D8" t="n">
-        <v>-18.20520397000869</v>
+        <v>-18.20520396847115</v>
       </c>
       <c r="E8" t="n">
-        <v>0.2445833910296031</v>
+        <v>0.2445833910296625</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.1052039700086915</v>
+        <v>-0.1052039684711517</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1052039700086915</v>
+        <v>-0.1052039684711517</v>
       </c>
     </row>
     <row r="9">
@@ -634,19 +634,19 @@
         <v>-13.09999999999999</v>
       </c>
       <c r="C9" t="n">
-        <v>-13.53538203551962</v>
+        <v>-13.53538230868667</v>
       </c>
       <c r="D9" t="n">
-        <v>-13.53538203551962</v>
+        <v>-13.53538230868667</v>
       </c>
       <c r="E9" t="n">
-        <v>0.3099754790127475</v>
+        <v>0.3099754790055831</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.4353820355196287</v>
+        <v>-0.435382308686675</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.4353820355196287</v>
+        <v>-0.435382308686675</v>
       </c>
     </row>
     <row r="10">
@@ -657,19 +657,19 @@
         <v>-8.099999999999994</v>
       </c>
       <c r="C10" t="n">
-        <v>-8.412366102243347</v>
+        <v>-8.412366981061535</v>
       </c>
       <c r="D10" t="n">
-        <v>-8.412366102243347</v>
+        <v>-8.412366981061535</v>
       </c>
       <c r="E10" t="n">
-        <v>0.2153980405203474</v>
+        <v>0.2153980404881305</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.3123661022433524</v>
+        <v>-0.3123669810615404</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.3123661022433524</v>
+        <v>-0.3123669810615404</v>
       </c>
     </row>
     <row r="11">
@@ -680,19 +680,19 @@
         <v>-3.099999999999994</v>
       </c>
       <c r="C11" t="n">
-        <v>-4.162115875665233</v>
+        <v>-4.162115872956935</v>
       </c>
       <c r="D11" t="n">
-        <v>-4.162115875665233</v>
+        <v>-4.162115872956935</v>
       </c>
       <c r="E11" t="n">
-        <v>0.3236065116967684</v>
+        <v>0.3236065116967867</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.062115875665238</v>
+        <v>-1.062115872956941</v>
       </c>
       <c r="G11" t="n">
-        <v>-1.062115875665238</v>
+        <v>-1.062115872956941</v>
       </c>
     </row>
     <row r="12">
@@ -706,16 +706,16 @@
         <v>1.5</v>
       </c>
       <c r="D12" t="n">
-        <v>2.844933442899461</v>
+        <v>2.844933572437901</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8114088544915805</v>
+        <v>0.8114088544929849</v>
       </c>
       <c r="F12" t="n">
         <v>-0.4000000000000057</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9449334428994556</v>
+        <v>0.9449335724378956</v>
       </c>
     </row>
     <row r="13">
@@ -726,19 +726,19 @@
         <v>6.900000000000006</v>
       </c>
       <c r="C13" t="n">
-        <v>6.883590571785827</v>
+        <v>6.8835898764683</v>
       </c>
       <c r="D13" t="n">
-        <v>6.883590571785827</v>
+        <v>6.8835898764683</v>
       </c>
       <c r="E13" t="n">
-        <v>0.1684241354425345</v>
+        <v>0.1684241354090051</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.01640942821417823</v>
+        <v>-0.01641012353170535</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.01640942821417823</v>
+        <v>-0.01641012353170535</v>
       </c>
     </row>
     <row r="14">
@@ -749,19 +749,19 @@
         <v>11.90000000000001</v>
       </c>
       <c r="C14" t="n">
-        <v>12.29422759822129</v>
+        <v>12.29422759721204</v>
       </c>
       <c r="D14" t="n">
-        <v>12.29422759822129</v>
+        <v>12.29422759721204</v>
       </c>
       <c r="E14" t="n">
-        <v>0.1250226437837227</v>
+        <v>0.1250226437836821</v>
       </c>
       <c r="F14" t="n">
-        <v>0.3942275982212795</v>
+        <v>0.3942275972120335</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3942275982212795</v>
+        <v>0.3942275972120335</v>
       </c>
     </row>
     <row r="15">
@@ -772,19 +772,19 @@
         <v>16.90000000000001</v>
       </c>
       <c r="C15" t="n">
-        <v>17.00708776609422</v>
+        <v>17.00709991497616</v>
       </c>
       <c r="D15" t="n">
-        <v>17.00708776609422</v>
+        <v>17.00709991497616</v>
       </c>
       <c r="E15" t="n">
-        <v>0.1236840530638181</v>
+        <v>0.1236840534929416</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1070877660942102</v>
+        <v>0.1070999149761569</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1070877660942102</v>
+        <v>0.1070999149761569</v>
       </c>
     </row>
     <row r="16">
@@ -795,19 +795,19 @@
         <v>21.90000000000001</v>
       </c>
       <c r="C16" t="n">
-        <v>22.14348712706708</v>
+        <v>22.14348801756694</v>
       </c>
       <c r="D16" t="n">
-        <v>22.14348712706708</v>
+        <v>22.14348801756694</v>
       </c>
       <c r="E16" t="n">
-        <v>0.1495105832204051</v>
+        <v>0.1495105832664035</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2434871270670769</v>
+        <v>0.2434880175669321</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2434871270670769</v>
+        <v>0.2434880175669321</v>
       </c>
     </row>
     <row r="17">
@@ -818,19 +818,19 @@
         <v>26.90000000000001</v>
       </c>
       <c r="C17" t="n">
-        <v>27.84518183438559</v>
+        <v>27.84518183297603</v>
       </c>
       <c r="D17" t="n">
-        <v>27.84518183438559</v>
+        <v>27.84518183297603</v>
       </c>
       <c r="E17" t="n">
-        <v>0.1672321073303379</v>
+        <v>0.1672321073301846</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9451818343855862</v>
+        <v>0.9451818329760258</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9451818343855862</v>
+        <v>0.9451818329760258</v>
       </c>
     </row>
     <row r="18">
@@ -841,19 +841,19 @@
         <v>31.90000000000001</v>
       </c>
       <c r="C18" t="n">
-        <v>32.63277172314477</v>
+        <v>32.63277172154561</v>
       </c>
       <c r="D18" t="n">
-        <v>32.63277172314477</v>
+        <v>32.63277172154561</v>
       </c>
       <c r="E18" t="n">
-        <v>0.181647941713677</v>
+        <v>0.1816479417137071</v>
       </c>
       <c r="F18" t="n">
-        <v>0.732771723144765</v>
+        <v>0.7327717215456033</v>
       </c>
       <c r="G18" t="n">
-        <v>0.732771723144765</v>
+        <v>0.7327717215456033</v>
       </c>
     </row>
     <row r="19">
@@ -864,19 +864,19 @@
         <v>36.90000000000001</v>
       </c>
       <c r="C19" t="n">
-        <v>37.69291482618024</v>
+        <v>37.69291322976678</v>
       </c>
       <c r="D19" t="n">
-        <v>37.69291482618024</v>
+        <v>37.69291322976678</v>
       </c>
       <c r="E19" t="n">
-        <v>0.225594034410382</v>
+        <v>0.2255940344076095</v>
       </c>
       <c r="F19" t="n">
-        <v>0.7929148261802368</v>
+        <v>0.7929132297667749</v>
       </c>
       <c r="G19" t="n">
-        <v>0.7929148261802368</v>
+        <v>0.7929132297667749</v>
       </c>
     </row>
     <row r="20">
@@ -887,19 +887,19 @@
         <v>41.90000000000001</v>
       </c>
       <c r="C20" t="n">
-        <v>42.43896635786599</v>
+        <v>42.43896634641209</v>
       </c>
       <c r="D20" t="n">
-        <v>42.43896635786599</v>
+        <v>42.43896634641209</v>
       </c>
       <c r="E20" t="n">
-        <v>0.233478309680491</v>
+        <v>0.2334783096800974</v>
       </c>
       <c r="F20" t="n">
-        <v>0.5389663578659878</v>
+        <v>0.5389663464120815</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5389663578659878</v>
+        <v>0.5389663464120815</v>
       </c>
     </row>
     <row r="21">
@@ -910,19 +910,19 @@
         <v>46.90000000000001</v>
       </c>
       <c r="C21" t="n">
-        <v>47.73905463312075</v>
+        <v>47.73906567743065</v>
       </c>
       <c r="D21" t="n">
-        <v>47.73905463312075</v>
+        <v>47.73906567743065</v>
       </c>
       <c r="E21" t="n">
-        <v>0.3325188303431799</v>
+        <v>0.3325188305001124</v>
       </c>
       <c r="F21" t="n">
-        <v>0.839054633120746</v>
+        <v>0.8390656774306464</v>
       </c>
       <c r="G21" t="n">
-        <v>0.839054633120746</v>
+        <v>0.8390656774306464</v>
       </c>
     </row>
     <row r="22">
@@ -933,19 +933,19 @@
         <v>51.90000000000001</v>
       </c>
       <c r="C22" t="n">
-        <v>53.27214888613017</v>
+        <v>53.27214946097494</v>
       </c>
       <c r="D22" t="n">
-        <v>53.27214888613017</v>
+        <v>53.27214946097494</v>
       </c>
       <c r="E22" t="n">
-        <v>0.4999466591987473</v>
+        <v>0.4999466592080337</v>
       </c>
       <c r="F22" t="n">
-        <v>1.372148886130162</v>
+        <v>1.372149460974931</v>
       </c>
       <c r="G22" t="n">
-        <v>1.372148886130162</v>
+        <v>1.372149460974931</v>
       </c>
     </row>
   </sheetData>

--- a/publication/analyses/outputs/fit_plane/micrometer-step-variation_and_fit-rmse-z_by_z-nominal.xlsx
+++ b/publication/analyses/outputs/fit_plane/micrometer-step-variation_and_fit-rmse-z_by_z-nominal.xlsx
@@ -473,19 +473,19 @@
         <v>-48.09999999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>-47.8082832843972</v>
+        <v>-47.80828328181187</v>
       </c>
       <c r="D2" t="n">
-        <v>-47.8082832843972</v>
+        <v>-47.80828328181187</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4708030978362276</v>
+        <v>0.4708030978362873</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2917167156027958</v>
+        <v>0.2917167181881268</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2917167156027958</v>
+        <v>0.2917167181881268</v>
       </c>
     </row>
     <row r="3">
@@ -496,19 +496,19 @@
         <v>-43.09999999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>-43.1463581034952</v>
+        <v>-43.14635836850329</v>
       </c>
       <c r="D3" t="n">
-        <v>-43.1463581034952</v>
+        <v>-43.14635836850329</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3292147994374878</v>
+        <v>0.3292147994309099</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.04635810349520852</v>
+        <v>-0.04635836850329156</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.04635810349520852</v>
+        <v>-0.04635836850329156</v>
       </c>
     </row>
     <row r="4">
@@ -519,19 +519,19 @@
         <v>-38.09999999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>-37.68519009447498</v>
+        <v>-37.68519041376937</v>
       </c>
       <c r="D4" t="n">
-        <v>-37.68519009447498</v>
+        <v>-37.68519041376937</v>
       </c>
       <c r="E4" t="n">
-        <v>0.364559885479343</v>
+        <v>0.3645598854735678</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4148099055250185</v>
+        <v>0.4148095862306249</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4148099055250185</v>
+        <v>0.4148095862306249</v>
       </c>
     </row>
     <row r="5">
@@ -542,19 +542,19 @@
         <v>-33.09999999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>-32.98388033237012</v>
+        <v>-32.98388251965225</v>
       </c>
       <c r="D5" t="n">
-        <v>-32.98388033237012</v>
+        <v>-32.98388251965225</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2194756493989171</v>
+        <v>0.2194756493231611</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1161196676298744</v>
+        <v>0.1161174803477394</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1161196676298744</v>
+        <v>0.1161174803477394</v>
       </c>
     </row>
     <row r="6">
@@ -565,19 +565,19 @@
         <v>-28.09999999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>-28.40995576474833</v>
+        <v>-28.40996244040846</v>
       </c>
       <c r="D6" t="n">
-        <v>-28.40995576474833</v>
+        <v>-28.40996244040846</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2137211489779573</v>
+        <v>0.2137211487865354</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.3099557647483344</v>
+        <v>-0.3099624404084658</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.3099557647483344</v>
+        <v>-0.3099624404084658</v>
       </c>
     </row>
     <row r="7">
@@ -588,19 +588,19 @@
         <v>-23.09999999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>-22.86769740813532</v>
+        <v>-22.86769733400464</v>
       </c>
       <c r="D7" t="n">
-        <v>-22.86769740813532</v>
+        <v>-22.86769733400464</v>
       </c>
       <c r="E7" t="n">
-        <v>0.2484320002469008</v>
+        <v>0.248432000249339</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2323025918646771</v>
+        <v>0.2323026659953555</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2323025918646771</v>
+        <v>0.2323026659953555</v>
       </c>
     </row>
     <row r="8">
@@ -611,19 +611,19 @@
         <v>-18.09999999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>-18.20520396847115</v>
+        <v>-18.20520396538731</v>
       </c>
       <c r="D8" t="n">
-        <v>-18.20520396847115</v>
+        <v>-18.20520396538731</v>
       </c>
       <c r="E8" t="n">
-        <v>0.2445833910296625</v>
+        <v>0.2445833910297503</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.1052039684711517</v>
+        <v>-0.1052039653873145</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1052039684711517</v>
+        <v>-0.1052039653873145</v>
       </c>
     </row>
     <row r="9">
@@ -634,19 +634,19 @@
         <v>-13.09999999999999</v>
       </c>
       <c r="C9" t="n">
-        <v>-13.53538230868667</v>
+        <v>-13.53538236173275</v>
       </c>
       <c r="D9" t="n">
-        <v>-13.53538230868667</v>
+        <v>-13.53538236173275</v>
       </c>
       <c r="E9" t="n">
-        <v>0.3099754790055831</v>
+        <v>0.3099754790042017</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.435382308686675</v>
+        <v>-0.4353823617327546</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.435382308686675</v>
+        <v>-0.4353823617327546</v>
       </c>
     </row>
     <row r="10">
@@ -657,19 +657,19 @@
         <v>-8.099999999999994</v>
       </c>
       <c r="C10" t="n">
-        <v>-8.412366981061535</v>
+        <v>-8.412366091911087</v>
       </c>
       <c r="D10" t="n">
-        <v>-8.412366981061535</v>
+        <v>-8.412366091911087</v>
       </c>
       <c r="E10" t="n">
-        <v>0.2153980404881305</v>
+        <v>0.2153980405207854</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.3123669810615404</v>
+        <v>-0.3123660919110929</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.3123669810615404</v>
+        <v>-0.3123660919110929</v>
       </c>
     </row>
     <row r="11">
@@ -680,19 +680,19 @@
         <v>-3.099999999999994</v>
       </c>
       <c r="C11" t="n">
-        <v>-4.162115872956935</v>
+        <v>-4.162115875790267</v>
       </c>
       <c r="D11" t="n">
-        <v>-4.162115872956935</v>
+        <v>-4.162115875790267</v>
       </c>
       <c r="E11" t="n">
-        <v>0.3236065116967867</v>
+        <v>0.3236065116966593</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.062115872956941</v>
+        <v>-1.062115875790273</v>
       </c>
       <c r="G11" t="n">
-        <v>-1.062115872956941</v>
+        <v>-1.062115875790273</v>
       </c>
     </row>
     <row r="12">
@@ -706,16 +706,16 @@
         <v>1.5</v>
       </c>
       <c r="D12" t="n">
-        <v>2.844933572437901</v>
+        <v>2.844933631165735</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8114088544929849</v>
+        <v>0.8114088544935832</v>
       </c>
       <c r="F12" t="n">
         <v>-0.4000000000000057</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9449335724378956</v>
+        <v>0.9449336311657297</v>
       </c>
     </row>
     <row r="13">
@@ -726,19 +726,19 @@
         <v>6.900000000000006</v>
       </c>
       <c r="C13" t="n">
-        <v>6.8835898764683</v>
+        <v>6.883590572356015</v>
       </c>
       <c r="D13" t="n">
-        <v>6.8835898764683</v>
+        <v>6.883590572356015</v>
       </c>
       <c r="E13" t="n">
-        <v>0.1684241354090051</v>
+        <v>0.1684241354425385</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.01641012353170535</v>
+        <v>-0.01640942764399078</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.01641012353170535</v>
+        <v>-0.01640942764399078</v>
       </c>
     </row>
     <row r="14">
@@ -749,19 +749,19 @@
         <v>11.90000000000001</v>
       </c>
       <c r="C14" t="n">
-        <v>12.29422759721204</v>
+        <v>12.29422626908773</v>
       </c>
       <c r="D14" t="n">
-        <v>12.29422759721204</v>
+        <v>12.29422626908773</v>
       </c>
       <c r="E14" t="n">
-        <v>0.1250226437836821</v>
+        <v>0.1250226437000733</v>
       </c>
       <c r="F14" t="n">
-        <v>0.3942275972120335</v>
+        <v>0.3942262690877225</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3942275972120335</v>
+        <v>0.3942262690877225</v>
       </c>
     </row>
     <row r="15">
@@ -772,19 +772,19 @@
         <v>16.90000000000001</v>
       </c>
       <c r="C15" t="n">
-        <v>17.00709991497616</v>
+        <v>17.0070999131628</v>
       </c>
       <c r="D15" t="n">
-        <v>17.00709991497616</v>
+        <v>17.0070999131628</v>
       </c>
       <c r="E15" t="n">
-        <v>0.1236840534929416</v>
+        <v>0.1236840534928419</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1070999149761569</v>
+        <v>0.1070999131627914</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1070999149761569</v>
+        <v>0.1070999131627914</v>
       </c>
     </row>
     <row r="16">
@@ -795,19 +795,19 @@
         <v>21.90000000000001</v>
       </c>
       <c r="C16" t="n">
-        <v>22.14348801756694</v>
+        <v>22.14348743371205</v>
       </c>
       <c r="D16" t="n">
-        <v>22.14348801756694</v>
+        <v>22.14348743371205</v>
       </c>
       <c r="E16" t="n">
-        <v>0.1495105832664035</v>
+        <v>0.149510583235754</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2434880175669321</v>
+        <v>0.2434874337120476</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2434880175669321</v>
+        <v>0.2434874337120476</v>
       </c>
     </row>
     <row r="17">
@@ -818,19 +818,19 @@
         <v>26.90000000000001</v>
       </c>
       <c r="C17" t="n">
-        <v>27.84518183297603</v>
+        <v>27.8451818358611</v>
       </c>
       <c r="D17" t="n">
-        <v>27.84518183297603</v>
+        <v>27.8451818358611</v>
       </c>
       <c r="E17" t="n">
-        <v>0.1672321073301846</v>
+        <v>0.1672321073302375</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9451818329760258</v>
+        <v>0.9451818358610993</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9451818329760258</v>
+        <v>0.9451818358610993</v>
       </c>
     </row>
     <row r="18">
@@ -841,19 +841,19 @@
         <v>31.90000000000001</v>
       </c>
       <c r="C18" t="n">
-        <v>32.63277172154561</v>
+        <v>32.63276711592759</v>
       </c>
       <c r="D18" t="n">
-        <v>32.63277172154561</v>
+        <v>32.63276711592759</v>
       </c>
       <c r="E18" t="n">
-        <v>0.1816479417137071</v>
+        <v>0.1816479415411238</v>
       </c>
       <c r="F18" t="n">
-        <v>0.7327717215456033</v>
+        <v>0.7327671159275866</v>
       </c>
       <c r="G18" t="n">
-        <v>0.7327717215456033</v>
+        <v>0.7327671159275866</v>
       </c>
     </row>
     <row r="19">
@@ -864,19 +864,19 @@
         <v>36.90000000000001</v>
       </c>
       <c r="C19" t="n">
-        <v>37.69291322976678</v>
+        <v>37.69292631788438</v>
       </c>
       <c r="D19" t="n">
-        <v>37.69291322976678</v>
+        <v>37.69292631788438</v>
       </c>
       <c r="E19" t="n">
-        <v>0.2255940344076095</v>
+        <v>0.2255940346437507</v>
       </c>
       <c r="F19" t="n">
-        <v>0.7929132297667749</v>
+        <v>0.7929263178843726</v>
       </c>
       <c r="G19" t="n">
-        <v>0.7929132297667749</v>
+        <v>0.7929263178843726</v>
       </c>
     </row>
     <row r="20">
@@ -887,19 +887,19 @@
         <v>41.90000000000001</v>
       </c>
       <c r="C20" t="n">
-        <v>42.43896634641209</v>
+        <v>42.43896634748509</v>
       </c>
       <c r="D20" t="n">
-        <v>42.43896634641209</v>
+        <v>42.43896634748509</v>
       </c>
       <c r="E20" t="n">
-        <v>0.2334783096800974</v>
+        <v>0.2334783096801961</v>
       </c>
       <c r="F20" t="n">
-        <v>0.5389663464120815</v>
+        <v>0.5389663474850863</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5389663464120815</v>
+        <v>0.5389663474850863</v>
       </c>
     </row>
     <row r="21">
@@ -910,19 +910,19 @@
         <v>46.90000000000001</v>
       </c>
       <c r="C21" t="n">
-        <v>47.73906567743065</v>
+        <v>47.7390566550323</v>
       </c>
       <c r="D21" t="n">
-        <v>47.73906567743065</v>
+        <v>47.7390566550323</v>
       </c>
       <c r="E21" t="n">
-        <v>0.3325188305001124</v>
+        <v>0.3325188303541812</v>
       </c>
       <c r="F21" t="n">
-        <v>0.8390656774306464</v>
+        <v>0.8390566550322944</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8390656774306464</v>
+        <v>0.8390566550322944</v>
       </c>
     </row>
     <row r="22">
@@ -933,19 +933,19 @@
         <v>51.90000000000001</v>
       </c>
       <c r="C22" t="n">
-        <v>53.27214946097494</v>
+        <v>53.27214947375982</v>
       </c>
       <c r="D22" t="n">
-        <v>53.27214946097494</v>
+        <v>53.27214947375982</v>
       </c>
       <c r="E22" t="n">
-        <v>0.4999466592080337</v>
+        <v>0.499946659208275</v>
       </c>
       <c r="F22" t="n">
-        <v>1.372149460974931</v>
+        <v>1.372149473759812</v>
       </c>
       <c r="G22" t="n">
-        <v>1.372149460974931</v>
+        <v>1.372149473759812</v>
       </c>
     </row>
   </sheetData>
